--- a/pub/Management/WBSbyArea/1.0.4_LIGO_Applications_WBS.xlsx
+++ b/pub/Management/WBSbyArea/1.0.4_LIGO_Applications_WBS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>LIGO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,12 +28,6 @@
     <t xml:space="preserve">Work_Item </t>
   </si>
   <si>
-    <t>Start_Date</t>
-  </si>
-  <si>
-    <t>End_Date</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -46,15 +40,9 @@
     <t>1.0.4.1</t>
   </si>
   <si>
-    <t>Engel, Daudert</t>
-  </si>
-  <si>
     <t>Engel</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>1.0.4.2</t>
   </si>
   <si>
@@ -64,13 +52,52 @@
     <t>Sustain LIGO E@H science production on OSG</t>
   </si>
   <si>
-    <t>Develop and deploy data movement plan</t>
-  </si>
-  <si>
-    <t>Develop and deploy execution environment using Pegasas and Pilot jobs</t>
-  </si>
-  <si>
-    <t>Demonstrate sustained production with at least 5 sites</t>
+    <t>1.0.4.1.1</t>
+  </si>
+  <si>
+    <t>Evaluate and adopt glideinWMS, if appropriate</t>
+  </si>
+  <si>
+    <t>1.0.4.1.2</t>
+  </si>
+  <si>
+    <t>Operate production submission "factory" and resolve issues</t>
+  </si>
+  <si>
+    <t>1.0.4.2.1</t>
+  </si>
+  <si>
+    <t>1.0.4.2.2</t>
+  </si>
+  <si>
+    <t>1.0.4.2.3</t>
+  </si>
+  <si>
+    <t>Develop and deploy data movement plan (movement, validation, cataloging)</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Develop and deploy execution environment using Pegasus and Corral-WMS</t>
+  </si>
+  <si>
+    <t>Demonstrate scalable sustained production over multiple sites</t>
+  </si>
+  <si>
+    <t>1.0.4.2.4</t>
+  </si>
+  <si>
+    <t>Daudert, Engel</t>
+  </si>
+  <si>
+    <t>Daudert, Engel, Levshina</t>
+  </si>
+  <si>
+    <t>Daudert, Engel, Rynge</t>
   </si>
 </sst>
 </file>
@@ -131,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -151,8 +178,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,19 +555,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,27 +578,31 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
+      <c r="C2" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D2" s="8">
+        <v>40816</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -566,57 +610,141 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D4" s="8">
+        <v>40816</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40558</v>
+      </c>
+      <c r="D5" s="8">
+        <v>40648</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40816</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D8" s="8">
+        <v>40816</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D9" s="8">
+        <v>40483</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8">
+        <v>40452</v>
+      </c>
+      <c r="D10" s="8">
+        <v>40558</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40575</v>
+      </c>
+      <c r="D11" s="8">
+        <v>40724</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+      <c r="C12" s="8">
+        <v>40695</v>
+      </c>
+      <c r="D12" s="8">
+        <v>40816</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -633,9 +761,6 @@
     </row>
     <row r="17" spans="2:2" ht="15.75">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75">
-      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
